--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.059734256834516</v>
+        <v>0.8409380881357338</v>
       </c>
       <c r="D2">
-        <v>0.2894179370687775</v>
+        <v>0.409430119213916</v>
       </c>
       <c r="E2">
         <v>4.782841270794374</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.4073422266453168</v>
+        <v>0.3646170402033728</v>
       </c>
       <c r="D3">
-        <v>0.6838085798687858</v>
+        <v>0.7188787084779382</v>
       </c>
       <c r="E3">
         <v>4.782841270794374</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1269737832233443</v>
+        <v>0.1199620767861547</v>
       </c>
       <c r="D4">
-        <v>0.8989763524586813</v>
+        <v>0.9056019817740011</v>
       </c>
       <c r="E4">
         <v>4.782841270794374</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.05634456159000533</v>
+        <v>0.04129806189883264</v>
       </c>
       <c r="D5">
-        <v>0.955074024213912</v>
+        <v>0.9674307903600394</v>
       </c>
       <c r="E5">
         <v>4.782841270794374</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.6964969363274638</v>
+        <v>-0.7023825779698128</v>
       </c>
       <c r="D6">
-        <v>0.48621408431613</v>
+        <v>0.4898062167577877</v>
       </c>
       <c r="E6">
         <v>4.319894238936868</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.201356191683143</v>
+        <v>-1.023094058607468</v>
       </c>
       <c r="D7">
-        <v>0.2297824962790178</v>
+        <v>0.3173824246139023</v>
       </c>
       <c r="E7">
         <v>4.319894238936868</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.098479075660288</v>
+        <v>-0.8889404025704247</v>
       </c>
       <c r="D8">
-        <v>0.2721528442122971</v>
+        <v>0.3836521469958374</v>
       </c>
       <c r="E8">
         <v>4.319894238936868</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.1891985747030272</v>
+        <v>-0.2165376456570488</v>
       </c>
       <c r="D9">
-        <v>0.8499600520337007</v>
+        <v>0.830564015577361</v>
       </c>
       <c r="E9">
         <v>4.648221660769143</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.3074799048268902</v>
+        <v>-0.3401071768065458</v>
       </c>
       <c r="D10">
-        <v>0.7585162504942544</v>
+        <v>0.7370017346845437</v>
       </c>
       <c r="E10">
         <v>4.648221660769143</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.05120854278056802</v>
+        <v>-0.04333921033373841</v>
       </c>
       <c r="D11">
-        <v>0.959165435885774</v>
+        <v>0.9658220922184564</v>
       </c>
       <c r="E11">
         <v>4.735685306494144</v>
